--- a/data/pca/factorExposure/factorExposure_2017-06-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02326664818648115</v>
+        <v>-0.009527246327627968</v>
       </c>
       <c r="C2">
-        <v>-0.007550038980448208</v>
+        <v>0.0451623824893375</v>
       </c>
       <c r="D2">
-        <v>0.03299139440557428</v>
+        <v>0.02994337373551346</v>
       </c>
       <c r="E2">
-        <v>0.005295661550506303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03343942245856359</v>
+      </c>
+      <c r="F2">
+        <v>0.009865341006342931</v>
+      </c>
+      <c r="G2">
+        <v>-0.09617069928128835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01752963282034358</v>
+        <v>-0.04464836123642921</v>
       </c>
       <c r="C3">
-        <v>0.04134272306417167</v>
+        <v>0.09479314419892214</v>
       </c>
       <c r="D3">
-        <v>0.09369707231049929</v>
+        <v>0.01649482792429692</v>
       </c>
       <c r="E3">
-        <v>0.01356160436288162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1010974424246762</v>
+      </c>
+      <c r="F3">
+        <v>0.003549638690112922</v>
+      </c>
+      <c r="G3">
+        <v>-0.1873662863893844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02464524716402476</v>
+        <v>-0.05553655529709104</v>
       </c>
       <c r="C4">
-        <v>0.007939373203671876</v>
+        <v>0.06823659192502754</v>
       </c>
       <c r="D4">
-        <v>0.08722764298869391</v>
+        <v>0.02444351645530759</v>
       </c>
       <c r="E4">
-        <v>-0.02409398439186693</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02685964948211211</v>
+      </c>
+      <c r="F4">
+        <v>0.0113988808041942</v>
+      </c>
+      <c r="G4">
+        <v>-0.0963621349314987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01425389807739589</v>
+        <v>-0.03683333857612429</v>
       </c>
       <c r="C6">
-        <v>-0.0082467743829848</v>
+        <v>0.05346909388847702</v>
       </c>
       <c r="D6">
-        <v>0.08320893839432814</v>
+        <v>0.01682695744419485</v>
       </c>
       <c r="E6">
-        <v>-0.01498921965401568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02776474286495893</v>
+      </c>
+      <c r="F6">
+        <v>0.008478275203805629</v>
+      </c>
+      <c r="G6">
+        <v>-0.07104474527896892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01131625119286657</v>
+        <v>-0.02032345735650627</v>
       </c>
       <c r="C7">
-        <v>0.002369319858327613</v>
+        <v>0.04158136818200742</v>
       </c>
       <c r="D7">
-        <v>0.04390815353177569</v>
+        <v>0.01331411417851085</v>
       </c>
       <c r="E7">
-        <v>-0.06233427097638386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.003996615887037559</v>
+      </c>
+      <c r="F7">
+        <v>-0.00370651247105897</v>
+      </c>
+      <c r="G7">
+        <v>-0.128705071648162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0006871903872537763</v>
+        <v>-0.003339449556787287</v>
       </c>
       <c r="C8">
-        <v>-0.0002548052711533841</v>
+        <v>0.02490257987408665</v>
       </c>
       <c r="D8">
-        <v>0.00514916497363423</v>
+        <v>0.004010521703573714</v>
       </c>
       <c r="E8">
-        <v>-0.007560602751197406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.0231012002156888</v>
+      </c>
+      <c r="F8">
+        <v>0.006383531389146136</v>
+      </c>
+      <c r="G8">
+        <v>-0.06927650448311193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0168268387759544</v>
+        <v>-0.03316436288363683</v>
       </c>
       <c r="C9">
-        <v>0.009620273678439199</v>
+        <v>0.04978122625369531</v>
       </c>
       <c r="D9">
-        <v>0.06455981567056676</v>
+        <v>0.01678480224927655</v>
       </c>
       <c r="E9">
-        <v>-0.01110567583613977</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01799523231270782</v>
+      </c>
+      <c r="F9">
+        <v>0.01033390574460269</v>
+      </c>
+      <c r="G9">
+        <v>-0.0956302355945261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02559672847069581</v>
+        <v>-0.09845586104088354</v>
       </c>
       <c r="C10">
-        <v>0.1782058381041666</v>
+        <v>-0.1810211648771783</v>
       </c>
       <c r="D10">
-        <v>-0.09081532932367738</v>
+        <v>-0.01455280667442317</v>
       </c>
       <c r="E10">
-        <v>0.02190074754814171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02069271551775594</v>
+      </c>
+      <c r="F10">
+        <v>-0.02047064594291837</v>
+      </c>
+      <c r="G10">
+        <v>-0.06103845704733688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0007392091638532201</v>
+        <v>-0.03442700078221634</v>
       </c>
       <c r="C11">
-        <v>-0.002230130409465147</v>
+        <v>0.0553088650367939</v>
       </c>
       <c r="D11">
-        <v>0.05771053444360178</v>
+        <v>0.002452256849026107</v>
       </c>
       <c r="E11">
-        <v>-0.002899465966516889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.009512970970805716</v>
+      </c>
+      <c r="F11">
+        <v>0.02130055128813671</v>
+      </c>
+      <c r="G11">
+        <v>-0.08219925689008332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005570100293287483</v>
+        <v>-0.03630710314869239</v>
       </c>
       <c r="C12">
-        <v>-2.355602225497848e-05</v>
+        <v>0.04942019564893393</v>
       </c>
       <c r="D12">
-        <v>0.05284986268170813</v>
+        <v>0.006198740190181562</v>
       </c>
       <c r="E12">
-        <v>-0.01469662223493882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.001307187623635137</v>
+      </c>
+      <c r="F12">
+        <v>0.001425862220069589</v>
+      </c>
+      <c r="G12">
+        <v>-0.07655421026781831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.024287427387509</v>
+        <v>-0.01502701849777988</v>
       </c>
       <c r="C13">
-        <v>0.01359259800371606</v>
+        <v>0.04049119173196443</v>
       </c>
       <c r="D13">
-        <v>0.0378259022786956</v>
+        <v>0.02642838753380477</v>
       </c>
       <c r="E13">
-        <v>0.005459053159669527</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03120293873152237</v>
+      </c>
+      <c r="F13">
+        <v>0.006889950155940605</v>
+      </c>
+      <c r="G13">
+        <v>-0.1199233238400596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.008963079185674638</v>
+        <v>-0.008558122979568287</v>
       </c>
       <c r="C14">
-        <v>0.01173171302385381</v>
+        <v>0.0289593352610136</v>
       </c>
       <c r="D14">
-        <v>0.01885321435022998</v>
+        <v>0.009835102324500045</v>
       </c>
       <c r="E14">
-        <v>-0.007817391891070335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002580439257598957</v>
+      </c>
+      <c r="F14">
+        <v>-0.008323676122347077</v>
+      </c>
+      <c r="G14">
+        <v>-0.1008972230277947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001545523010055026</v>
+        <v>-0.03310082438082819</v>
       </c>
       <c r="C16">
-        <v>0.004019400799976285</v>
+        <v>0.04906455979743728</v>
       </c>
       <c r="D16">
-        <v>0.05415809427179998</v>
+        <v>0.001990686893540458</v>
       </c>
       <c r="E16">
-        <v>-0.01272302212809832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.008414583893982572</v>
+      </c>
+      <c r="F16">
+        <v>0.002297355285299037</v>
+      </c>
+      <c r="G16">
+        <v>-0.08414401591245184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01564696306072765</v>
+        <v>-0.0212645384852038</v>
       </c>
       <c r="C19">
-        <v>0.01840564338360099</v>
+        <v>0.05335368835102212</v>
       </c>
       <c r="D19">
-        <v>0.04716013522134353</v>
+        <v>0.01888259357281645</v>
       </c>
       <c r="E19">
-        <v>-0.0178230841152498</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06733326087920345</v>
+      </c>
+      <c r="F19">
+        <v>0.02119989399290409</v>
+      </c>
+      <c r="G19">
+        <v>-0.1368673284023255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01142965453009841</v>
+        <v>-0.01480822126478779</v>
       </c>
       <c r="C20">
-        <v>0.004486598970101456</v>
+        <v>0.03981212130079417</v>
       </c>
       <c r="D20">
-        <v>0.03577988176798168</v>
+        <v>0.0141187444679652</v>
       </c>
       <c r="E20">
-        <v>0.008291666229249251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02874390039699064</v>
+      </c>
+      <c r="F20">
+        <v>-0.01122619208658634</v>
+      </c>
+      <c r="G20">
+        <v>-0.1067383055557487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0158089989645297</v>
+        <v>-0.01276754401260755</v>
       </c>
       <c r="C21">
-        <v>0.0148955604265302</v>
+        <v>0.04037870949543741</v>
       </c>
       <c r="D21">
-        <v>0.03813229959574726</v>
+        <v>0.01860280425381042</v>
       </c>
       <c r="E21">
-        <v>-0.009763359819780194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.04268233294175168</v>
+      </c>
+      <c r="F21">
+        <v>0.0002943486651227953</v>
+      </c>
+      <c r="G21">
+        <v>-0.1336339808598383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0005221035827019908</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0001608821685863689</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0002473240234907317</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0007718914445370371</v>
+      </c>
+      <c r="F22">
+        <v>0.0001420847199641795</v>
+      </c>
+      <c r="G22">
+        <v>-0.002131151381136395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0005264471588842607</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0001605230547950494</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0002474536108474076</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0007774026558165355</v>
+      </c>
+      <c r="F23">
+        <v>0.0001403806424570017</v>
+      </c>
+      <c r="G23">
+        <v>-0.002141678042797413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004231772015101474</v>
+        <v>-0.02801101289836953</v>
       </c>
       <c r="C24">
-        <v>-0.007947672883550295</v>
+        <v>0.0517737220625983</v>
       </c>
       <c r="D24">
-        <v>0.0513571362575713</v>
+        <v>0.007250649541166836</v>
       </c>
       <c r="E24">
-        <v>-0.0106762028332305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005415213535518829</v>
+      </c>
+      <c r="F24">
+        <v>0.01406249891356036</v>
+      </c>
+      <c r="G24">
+        <v>-0.08386906329308129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01249460895292062</v>
+        <v>-0.04282302742700677</v>
       </c>
       <c r="C25">
-        <v>0.009609038744888769</v>
+        <v>0.0595574252817908</v>
       </c>
       <c r="D25">
-        <v>0.05962536157586767</v>
+        <v>0.01119434292046334</v>
       </c>
       <c r="E25">
-        <v>-0.01268122831235124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.001699203285009843</v>
+      </c>
+      <c r="F25">
+        <v>0.007793546677188024</v>
+      </c>
+      <c r="G25">
+        <v>-0.09294262347461653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.0231944217142039</v>
+        <v>-0.01374352167496156</v>
       </c>
       <c r="C26">
-        <v>0.005195809889027334</v>
+        <v>0.01166269722043298</v>
       </c>
       <c r="D26">
-        <v>0.002529292238073326</v>
+        <v>0.0239064651413704</v>
       </c>
       <c r="E26">
-        <v>-0.0100255117016035</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.005402554548394689</v>
+      </c>
+      <c r="F26">
+        <v>-0.009016897544821876</v>
+      </c>
+      <c r="G26">
+        <v>-0.07978554122813622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04962034145333451</v>
+        <v>-0.1256767988208889</v>
       </c>
       <c r="C28">
-        <v>0.2477784891010849</v>
+        <v>-0.2363200736405885</v>
       </c>
       <c r="D28">
-        <v>-0.1199539550604594</v>
+        <v>-0.005367257872470633</v>
       </c>
       <c r="E28">
-        <v>0.0007103866247005943</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.008395587136817749</v>
+      </c>
+      <c r="F28">
+        <v>-0.01413286493701079</v>
+      </c>
+      <c r="G28">
+        <v>-0.0583889743691508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009334653732677613</v>
+        <v>-0.009503769060512687</v>
       </c>
       <c r="C29">
-        <v>0.01564935158833815</v>
+        <v>0.0227824495613963</v>
       </c>
       <c r="D29">
-        <v>0.01813960237708159</v>
+        <v>0.008846664738755953</v>
       </c>
       <c r="E29">
-        <v>-0.00492088989815212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001518339300566538</v>
+      </c>
+      <c r="F29">
+        <v>-0.01761461332368665</v>
+      </c>
+      <c r="G29">
+        <v>-0.09339477354035404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02405204878375596</v>
+        <v>-0.04112379529426428</v>
       </c>
       <c r="C30">
-        <v>-0.008946659085716733</v>
+        <v>0.06978153705467158</v>
       </c>
       <c r="D30">
-        <v>0.09899751733092683</v>
+        <v>0.02903899560890017</v>
       </c>
       <c r="E30">
-        <v>0.02964666166318298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.0523507553688799</v>
+      </c>
+      <c r="F30">
+        <v>0.04519714875597457</v>
+      </c>
+      <c r="G30">
+        <v>-0.1095732599090934</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01058435758509299</v>
+        <v>-0.05311797026113234</v>
       </c>
       <c r="C31">
-        <v>0.03406678206241933</v>
+        <v>0.03787443068872429</v>
       </c>
       <c r="D31">
-        <v>0.04089936447797681</v>
+        <v>0.003674756147510218</v>
       </c>
       <c r="E31">
-        <v>-0.01044920433340965</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.002089821356728835</v>
+      </c>
+      <c r="F31">
+        <v>-0.03921602152319784</v>
+      </c>
+      <c r="G31">
+        <v>-0.08923160824613473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004768946451797836</v>
+        <v>-0.00154122409544532</v>
       </c>
       <c r="C32">
-        <v>0.01947966729233021</v>
+        <v>0.02573052969938865</v>
       </c>
       <c r="D32">
-        <v>0.009041862980655237</v>
+        <v>-0.003434485126658762</v>
       </c>
       <c r="E32">
-        <v>-0.05874108565663549</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01985485238799688</v>
+      </c>
+      <c r="F32">
+        <v>0.03703761866634028</v>
+      </c>
+      <c r="G32">
+        <v>-0.0962519190177782</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01497904645241074</v>
+        <v>-0.0278119552326543</v>
       </c>
       <c r="C33">
-        <v>0.01998549120638259</v>
+        <v>0.05067524483110266</v>
       </c>
       <c r="D33">
-        <v>0.04813707783707261</v>
+        <v>0.01576479515066999</v>
       </c>
       <c r="E33">
-        <v>0.01820957791732131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.0353413706501199</v>
+      </c>
+      <c r="F33">
+        <v>0.01646915144324698</v>
+      </c>
+      <c r="G33">
+        <v>-0.142411775463226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003651485513752189</v>
+        <v>-0.04026329089350957</v>
       </c>
       <c r="C34">
-        <v>0.01172919011215906</v>
+        <v>0.06190103562583118</v>
       </c>
       <c r="D34">
-        <v>0.05789262004865116</v>
+        <v>-0.004618334622565008</v>
       </c>
       <c r="E34">
-        <v>-0.01774198382459403</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0004744443951990556</v>
+      </c>
+      <c r="F34">
+        <v>0.02020002856064413</v>
+      </c>
+      <c r="G34">
+        <v>-0.09175236609343668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01364229682687346</v>
+        <v>-0.01593838825335689</v>
       </c>
       <c r="C36">
-        <v>0.01757685255686161</v>
+        <v>0.009590699010920547</v>
       </c>
       <c r="D36">
-        <v>0.009436371177262934</v>
+        <v>0.01224922798878957</v>
       </c>
       <c r="E36">
-        <v>-0.008540250913948206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004047266301103774</v>
+      </c>
+      <c r="F36">
+        <v>-0.007086360262383507</v>
+      </c>
+      <c r="G36">
+        <v>-0.0841740002869267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.00194608261744338</v>
+        <v>-0.03201507760990933</v>
       </c>
       <c r="C38">
-        <v>0.03019330245529245</v>
+        <v>0.03206280397003672</v>
       </c>
       <c r="D38">
-        <v>0.05532771008800068</v>
+        <v>-0.007542818104609311</v>
       </c>
       <c r="E38">
-        <v>-0.01667372461233399</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002485815361487905</v>
+      </c>
+      <c r="F38">
+        <v>-0.01882275461234733</v>
+      </c>
+      <c r="G38">
+        <v>-0.08213397871262954</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.003966583215850669</v>
+        <v>-0.03535426628002948</v>
       </c>
       <c r="C39">
-        <v>-0.03198892823809606</v>
+        <v>0.08149205474053119</v>
       </c>
       <c r="D39">
-        <v>0.1014158360628839</v>
+        <v>0.01179143248924848</v>
       </c>
       <c r="E39">
-        <v>-0.0001286621355549611</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02086211953524238</v>
+      </c>
+      <c r="F39">
+        <v>0.02587325403550018</v>
+      </c>
+      <c r="G39">
+        <v>-0.08399015040140667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01223028686841938</v>
+        <v>-0.01491720351015669</v>
       </c>
       <c r="C40">
-        <v>0.008419995008862466</v>
+        <v>0.04329725673780385</v>
       </c>
       <c r="D40">
-        <v>0.04316499776385337</v>
+        <v>0.01484272183326218</v>
       </c>
       <c r="E40">
-        <v>-0.01682575599136181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.0207131050145136</v>
+      </c>
+      <c r="F40">
+        <v>-0.01606215814356402</v>
+      </c>
+      <c r="G40">
+        <v>-0.1208134906788739</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006853836764896784</v>
+        <v>-0.02009245000899771</v>
       </c>
       <c r="C41">
-        <v>0.02153230933702216</v>
+        <v>0.001776049568450391</v>
       </c>
       <c r="D41">
-        <v>-0.01020561655796799</v>
+        <v>0.004274945401872823</v>
       </c>
       <c r="E41">
-        <v>-0.004187182295403612</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002470689212040632</v>
+      </c>
+      <c r="F41">
+        <v>-0.01324180979941958</v>
+      </c>
+      <c r="G41">
+        <v>-0.07315743543606906</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08961306663369817</v>
+        <v>-0.008191132557362275</v>
       </c>
       <c r="C42">
-        <v>-0.04678965630224806</v>
+        <v>0.03619513929037983</v>
       </c>
       <c r="D42">
-        <v>0.1709046605667613</v>
+        <v>0.09151760799592629</v>
       </c>
       <c r="E42">
-        <v>0.4471517421650906</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.01502567607972116</v>
+      </c>
+      <c r="F42">
+        <v>-0.03606665429154128</v>
+      </c>
+      <c r="G42">
+        <v>0.1359593313781907</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.008269111730162582</v>
+        <v>-0.03399016895927782</v>
       </c>
       <c r="C43">
-        <v>0.02619038611593633</v>
+        <v>0.01761692229390475</v>
       </c>
       <c r="D43">
-        <v>-0.006088026725853585</v>
+        <v>0.006015296903711363</v>
       </c>
       <c r="E43">
-        <v>-0.003889842205330084</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01614888433828687</v>
+      </c>
+      <c r="F43">
+        <v>-0.0036908482606899</v>
+      </c>
+      <c r="G43">
+        <v>-0.1071509035869936</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003560354567205285</v>
+        <v>-0.0123676254540923</v>
       </c>
       <c r="C44">
-        <v>0.0003977666383300011</v>
+        <v>0.05930519175275956</v>
       </c>
       <c r="D44">
-        <v>0.055552729797435</v>
+        <v>0.00674156376842584</v>
       </c>
       <c r="E44">
-        <v>-0.01653798275690997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01764288544797494</v>
+      </c>
+      <c r="F44">
+        <v>-0.008947393721590763</v>
+      </c>
+      <c r="G44">
+        <v>-0.1003100966620645</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01149159646947329</v>
+        <v>-0.00797530175010149</v>
       </c>
       <c r="C46">
-        <v>0.01114688434951741</v>
+        <v>0.01802296689509825</v>
       </c>
       <c r="D46">
-        <v>0.006684965616536479</v>
+        <v>0.01251272875139232</v>
       </c>
       <c r="E46">
-        <v>0.002023286514028151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001570393070015666</v>
+      </c>
+      <c r="F46">
+        <v>-0.01756011609886707</v>
+      </c>
+      <c r="G46">
+        <v>-0.09694019685791898</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.00498422510933756</v>
+        <v>-0.07711343204372691</v>
       </c>
       <c r="C47">
-        <v>0.03994951756501053</v>
+        <v>0.06667872761463155</v>
       </c>
       <c r="D47">
-        <v>0.07348907984360112</v>
+        <v>-0.005253752894954439</v>
       </c>
       <c r="E47">
-        <v>-0.01253474790578203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008079474402705939</v>
+      </c>
+      <c r="F47">
+        <v>-0.05395233944526182</v>
+      </c>
+      <c r="G47">
+        <v>-0.0796612840184783</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004747315430131341</v>
+        <v>-0.02021715516502099</v>
       </c>
       <c r="C48">
-        <v>0.02213950295104458</v>
+        <v>0.01277534166565365</v>
       </c>
       <c r="D48">
-        <v>0.02149669237287153</v>
+        <v>0.001670895105218578</v>
       </c>
       <c r="E48">
-        <v>-0.003359193522881626</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.00157697130637185</v>
+      </c>
+      <c r="F48">
+        <v>-0.02023470069941305</v>
+      </c>
+      <c r="G48">
+        <v>-0.08732314260667066</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.007190211904527635</v>
+        <v>-0.07527699831114557</v>
       </c>
       <c r="C50">
-        <v>0.04398455609970218</v>
+        <v>0.07031295000325792</v>
       </c>
       <c r="D50">
-        <v>0.07093928322342549</v>
+        <v>-0.002858698135490466</v>
       </c>
       <c r="E50">
-        <v>-0.03547017142271994</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.009240276531345957</v>
+      </c>
+      <c r="F50">
+        <v>-0.05588158347384237</v>
+      </c>
+      <c r="G50">
+        <v>-0.09303918135009412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007936830847363107</v>
+        <v>-0.01409572926036858</v>
       </c>
       <c r="C51">
-        <v>0.01276985072475679</v>
+        <v>0.0362004572174951</v>
       </c>
       <c r="D51">
-        <v>0.01692746530566832</v>
+        <v>0.010399079074173</v>
       </c>
       <c r="E51">
-        <v>-0.008136268049072937</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01885040165315489</v>
+      </c>
+      <c r="F51">
+        <v>0.02263562327786959</v>
+      </c>
+      <c r="G51">
+        <v>-0.123471419047134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.008737204798913377</v>
+        <v>-0.08176429178389025</v>
       </c>
       <c r="C53">
-        <v>0.04658870020014096</v>
+        <v>0.08481250853740037</v>
       </c>
       <c r="D53">
-        <v>0.1290770350225595</v>
+        <v>-0.003942328099283771</v>
       </c>
       <c r="E53">
-        <v>-0.02562348500648697</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02663020588695822</v>
+      </c>
+      <c r="F53">
+        <v>-0.06694624260791113</v>
+      </c>
+      <c r="G53">
+        <v>-0.07786599170944244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.002706870641526726</v>
+        <v>-0.02978103905868747</v>
       </c>
       <c r="C54">
-        <v>0.03396892068889568</v>
+        <v>0.01650262827715551</v>
       </c>
       <c r="D54">
-        <v>0.002410862651107302</v>
+        <v>-0.001289987705771757</v>
       </c>
       <c r="E54">
-        <v>0.00491663012023053</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01275509157172496</v>
+      </c>
+      <c r="F54">
+        <v>-1.607015114116705e-05</v>
+      </c>
+      <c r="G54">
+        <v>-0.09681180335988895</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.004666050257934032</v>
+        <v>-0.07188140845527229</v>
       </c>
       <c r="C55">
-        <v>0.03088399487790716</v>
+        <v>0.06880028828904133</v>
       </c>
       <c r="D55">
-        <v>0.1050081487478481</v>
+        <v>-0.005348050515973479</v>
       </c>
       <c r="E55">
-        <v>-0.01043563436849457</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02343373501680775</v>
+      </c>
+      <c r="F55">
+        <v>-0.06177822694534565</v>
+      </c>
+      <c r="G55">
+        <v>-0.05415468380312962</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.007837403377275062</v>
+        <v>-0.137500368376734</v>
       </c>
       <c r="C56">
-        <v>0.06750484395544167</v>
+        <v>0.1084037791660885</v>
       </c>
       <c r="D56">
-        <v>0.1591876953664172</v>
+        <v>-0.01294326279633866</v>
       </c>
       <c r="E56">
-        <v>-0.02069908589704503</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03287963208566995</v>
+      </c>
+      <c r="F56">
+        <v>-0.08112363742152154</v>
+      </c>
+      <c r="G56">
+        <v>-0.02576330902790313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02268822381141031</v>
+        <v>-0.006567098660489025</v>
       </c>
       <c r="C57">
-        <v>-0.004015937788633597</v>
+        <v>0.009178836111421956</v>
       </c>
       <c r="D57">
-        <v>0.04633104213918419</v>
+        <v>0.02353964132460371</v>
       </c>
       <c r="E57">
-        <v>0.01493081669784343</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02507211308822946</v>
+      </c>
+      <c r="F57">
+        <v>0.009562550930546719</v>
+      </c>
+      <c r="G57">
+        <v>-0.02883709794267602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01487185551736325</v>
+        <v>-0.0553059871077879</v>
       </c>
       <c r="C58">
-        <v>0.06020588648480003</v>
+        <v>0.05459073187465699</v>
       </c>
       <c r="D58">
-        <v>0.1865590430743578</v>
+        <v>0.0252675442725526</v>
       </c>
       <c r="E58">
-        <v>0.5913449442535754</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9334263955253149</v>
+      </c>
+      <c r="F58">
+        <v>-0.2354034316173122</v>
+      </c>
+      <c r="G58">
+        <v>0.1538714489395149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.04968731824880677</v>
+        <v>-0.1598644004568604</v>
       </c>
       <c r="C59">
-        <v>0.2736030985877586</v>
+        <v>-0.2033776694689187</v>
       </c>
       <c r="D59">
-        <v>-0.1036978698254103</v>
+        <v>-0.01084589218657539</v>
       </c>
       <c r="E59">
-        <v>-0.0115445079174368</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01939969403266353</v>
+      </c>
+      <c r="F59">
+        <v>0.004509808747196936</v>
+      </c>
+      <c r="G59">
+        <v>-0.0425136127664026</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04602205869507808</v>
+        <v>-0.2864004250393245</v>
       </c>
       <c r="C60">
-        <v>0.1457903170099457</v>
+        <v>0.1075410077301526</v>
       </c>
       <c r="D60">
-        <v>0.1381501566639435</v>
+        <v>0.0127180181836847</v>
       </c>
       <c r="E60">
-        <v>-0.06061485573226733</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.002497298077371599</v>
+      </c>
+      <c r="F60">
+        <v>0.345807879855703</v>
+      </c>
+      <c r="G60">
+        <v>0.1373542366999759</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003485225660873217</v>
+        <v>-0.03776378693127594</v>
       </c>
       <c r="C61">
-        <v>-0.0008083703484124195</v>
+        <v>0.06781899021838844</v>
       </c>
       <c r="D61">
-        <v>0.08016760786107381</v>
+        <v>0.005272147695054401</v>
       </c>
       <c r="E61">
-        <v>-0.01797218675485854</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01322006663329726</v>
+      </c>
+      <c r="F61">
+        <v>0.01430301304135986</v>
+      </c>
+      <c r="G61">
+        <v>-0.08706464957198623</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008525095361474435</v>
+        <v>-0.0151058637276105</v>
       </c>
       <c r="C63">
-        <v>0.005393651619516016</v>
+        <v>0.03028413540323643</v>
       </c>
       <c r="D63">
-        <v>0.02670810569985112</v>
+        <v>0.008449919612547622</v>
       </c>
       <c r="E63">
-        <v>-0.02172018626558001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001019243107920034</v>
+      </c>
+      <c r="F63">
+        <v>-0.01649189762070739</v>
+      </c>
+      <c r="G63">
+        <v>-0.0902867302026833</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.009695567662926856</v>
+        <v>-0.04737380524305293</v>
       </c>
       <c r="C64">
-        <v>0.0233551761916784</v>
+        <v>0.04722052170454297</v>
       </c>
       <c r="D64">
-        <v>0.06232768228185866</v>
+        <v>0.006172047414151062</v>
       </c>
       <c r="E64">
-        <v>-0.003082983576813523</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.00032616169978889</v>
+      </c>
+      <c r="F64">
+        <v>0.006649523871933543</v>
+      </c>
+      <c r="G64">
+        <v>-0.08467079158811651</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01712164470967432</v>
+        <v>-0.07476351396091487</v>
       </c>
       <c r="C65">
-        <v>-0.006749628571557036</v>
+        <v>0.06051078752897682</v>
       </c>
       <c r="D65">
-        <v>0.1018740476151651</v>
+        <v>0.01649771203487664</v>
       </c>
       <c r="E65">
-        <v>-0.02430489598390155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02918999788301197</v>
+      </c>
+      <c r="F65">
+        <v>0.02900617385188582</v>
+      </c>
+      <c r="G65">
+        <v>-0.02841809951346825</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004352741422204813</v>
+        <v>-0.05133593231603049</v>
       </c>
       <c r="C66">
-        <v>-0.02887397635573439</v>
+        <v>0.1109903240474765</v>
       </c>
       <c r="D66">
-        <v>0.13821899640107</v>
+        <v>0.01174839204401588</v>
       </c>
       <c r="E66">
-        <v>-0.008496884864707217</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.0304847535871312</v>
+      </c>
+      <c r="F66">
+        <v>0.03571108282017388</v>
+      </c>
+      <c r="G66">
+        <v>-0.09947947340453825</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.005067712554457977</v>
+        <v>-0.05502094575271121</v>
       </c>
       <c r="C67">
-        <v>0.05005593849331921</v>
+        <v>0.03554888465006371</v>
       </c>
       <c r="D67">
-        <v>0.07139638222448398</v>
+        <v>-0.005959618990192051</v>
       </c>
       <c r="E67">
-        <v>-0.02002593619922441</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.004265528975007268</v>
+      </c>
+      <c r="F67">
+        <v>-0.01763306994672134</v>
+      </c>
+      <c r="G67">
+        <v>-0.07384794320337147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.06406525161101943</v>
+        <v>-0.1535765192425602</v>
       </c>
       <c r="C68">
-        <v>0.2493994406768646</v>
+        <v>-0.2691068438355591</v>
       </c>
       <c r="D68">
-        <v>-0.1482828152936473</v>
+        <v>0.006564993636682137</v>
       </c>
       <c r="E68">
-        <v>0.02945898477717288</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.0126641251315541</v>
+      </c>
+      <c r="F68">
+        <v>-0.03166941813785872</v>
+      </c>
+      <c r="G68">
+        <v>-0.03216629210722576</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0004225235848885548</v>
+        <v>-0.08144103726972357</v>
       </c>
       <c r="C69">
-        <v>0.03321275813595225</v>
+        <v>0.06981322390145847</v>
       </c>
       <c r="D69">
-        <v>0.0774431344822647</v>
+        <v>-0.009216467307796102</v>
       </c>
       <c r="E69">
-        <v>-0.02575748253816768</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02403017534102785</v>
+      </c>
+      <c r="F69">
+        <v>-0.03662095906501109</v>
+      </c>
+      <c r="G69">
+        <v>-0.08917685156795101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04849405408829043</v>
+        <v>-0.140129058113381</v>
       </c>
       <c r="C71">
-        <v>0.2179969223796941</v>
+        <v>-0.2276635633054393</v>
       </c>
       <c r="D71">
-        <v>-0.1004380048624152</v>
+        <v>-0.002052175303779542</v>
       </c>
       <c r="E71">
-        <v>0.01986316688257984</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.0331670252613498</v>
+      </c>
+      <c r="F71">
+        <v>-0.01850879047805093</v>
+      </c>
+      <c r="G71">
+        <v>-0.06651738901499532</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.001543172301281722</v>
+        <v>-0.08463205722512077</v>
       </c>
       <c r="C72">
-        <v>0.02037037401080579</v>
+        <v>0.0745702205496481</v>
       </c>
       <c r="D72">
-        <v>0.1123458394801942</v>
+        <v>-0.007935132111674374</v>
       </c>
       <c r="E72">
-        <v>-0.02852347735129303</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.00272275883663387</v>
+      </c>
+      <c r="F72">
+        <v>0.04013855957586095</v>
+      </c>
+      <c r="G72">
+        <v>-0.07490835340899782</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05915887158296627</v>
+        <v>-0.3746389622748446</v>
       </c>
       <c r="C73">
-        <v>0.1552601573346956</v>
+        <v>0.1182141189966426</v>
       </c>
       <c r="D73">
-        <v>0.2485623339725995</v>
+        <v>0.02181452005229323</v>
       </c>
       <c r="E73">
-        <v>-0.0354580535915779</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.067676820176488</v>
+      </c>
+      <c r="F73">
+        <v>0.5760676419675689</v>
+      </c>
+      <c r="G73">
+        <v>0.2680241280011011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.005372969621210885</v>
+        <v>-0.1055052676454287</v>
       </c>
       <c r="C74">
-        <v>0.05616557077973097</v>
+        <v>0.1102114745308555</v>
       </c>
       <c r="D74">
-        <v>0.176721462236764</v>
+        <v>-0.00983591838269505</v>
       </c>
       <c r="E74">
-        <v>-0.01781450212205449</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.009542805576667814</v>
+      </c>
+      <c r="F74">
+        <v>-0.07103770427441138</v>
+      </c>
+      <c r="G74">
+        <v>-0.07227638973084621</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01507803682129593</v>
+        <v>-0.2496217930231468</v>
       </c>
       <c r="C75">
-        <v>0.138447135719844</v>
+        <v>0.1507016271686325</v>
       </c>
       <c r="D75">
-        <v>0.2999212704170027</v>
+        <v>-0.03142692156023782</v>
       </c>
       <c r="E75">
-        <v>-0.02327367266314436</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05790288045040066</v>
+      </c>
+      <c r="F75">
+        <v>-0.1767058424818555</v>
+      </c>
+      <c r="G75">
+        <v>0.04794949327019857</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.004041532139318148</v>
+        <v>-0.1214729930651751</v>
       </c>
       <c r="C76">
-        <v>0.08960589770067072</v>
+        <v>0.1113996962676549</v>
       </c>
       <c r="D76">
-        <v>0.2255641049623738</v>
+        <v>-0.01978361679748945</v>
       </c>
       <c r="E76">
-        <v>-0.05755010661137205</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03494543841203315</v>
+      </c>
+      <c r="F76">
+        <v>-0.1169949591263408</v>
+      </c>
+      <c r="G76">
+        <v>-0.04786256825704407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01500856462970451</v>
+        <v>-0.06773878436010793</v>
       </c>
       <c r="C77">
-        <v>0.01660671223701877</v>
+        <v>0.06180918933685797</v>
       </c>
       <c r="D77">
-        <v>0.069070299972969</v>
+        <v>0.01160537425150041</v>
       </c>
       <c r="E77">
-        <v>0.002481829563437563</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04322004070397943</v>
+      </c>
+      <c r="F77">
+        <v>0.01055053557646533</v>
+      </c>
+      <c r="G77">
+        <v>-0.06232875447039805</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.005828806200938884</v>
+        <v>-0.04265568802098831</v>
       </c>
       <c r="C78">
-        <v>0.009820076344165731</v>
+        <v>0.05289168730944193</v>
       </c>
       <c r="D78">
-        <v>0.06004825875031228</v>
+        <v>0.005650075168479344</v>
       </c>
       <c r="E78">
-        <v>-0.004087947048337041</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02255177950933744</v>
+      </c>
+      <c r="F78">
+        <v>0.03521775567138723</v>
+      </c>
+      <c r="G78">
+        <v>-0.09079513095673526</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01026452460104791</v>
+        <v>-0.04333291967313607</v>
       </c>
       <c r="C80">
-        <v>0.01461788834883298</v>
+        <v>0.07207249682368877</v>
       </c>
       <c r="D80">
-        <v>0.1460732840701306</v>
+        <v>0.01071598623602612</v>
       </c>
       <c r="E80">
-        <v>-0.6278024809942447</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.0305757491947394</v>
+      </c>
+      <c r="F80">
+        <v>0.02752303920437313</v>
+      </c>
+      <c r="G80">
+        <v>-0.3681660263940743</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.01027997759768795</v>
+        <v>-0.140109317417245</v>
       </c>
       <c r="C81">
-        <v>0.08509631339963111</v>
+        <v>0.09641724206585139</v>
       </c>
       <c r="D81">
-        <v>0.1777600030088993</v>
+        <v>-0.01572257197673026</v>
       </c>
       <c r="E81">
-        <v>-0.03224494751611259</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03454652415228645</v>
+      </c>
+      <c r="F81">
+        <v>-0.1342237083294476</v>
+      </c>
+      <c r="G81">
+        <v>-0.02030605622449444</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1264176255142035</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07229486712610111</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.008226355870669028</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.09030236299597191</v>
+      </c>
+      <c r="F82">
+        <v>-0.03686459769291549</v>
+      </c>
+      <c r="G82">
+        <v>-0.05284311971343541</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.008270459106827411</v>
+        <v>-0.03607205609385521</v>
       </c>
       <c r="C83">
-        <v>0.02032930639600022</v>
+        <v>0.02938608344033946</v>
       </c>
       <c r="D83">
-        <v>0.03818492429148202</v>
+        <v>0.005762162143337236</v>
       </c>
       <c r="E83">
-        <v>0.001114298676070738</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02786298024210338</v>
+      </c>
+      <c r="F83">
+        <v>0.03222625226141764</v>
+      </c>
+      <c r="G83">
+        <v>-0.06031775741167244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02139544161838368</v>
+        <v>-0.2154360833819311</v>
       </c>
       <c r="C85">
-        <v>0.1070041616283011</v>
+        <v>0.1445916301342492</v>
       </c>
       <c r="D85">
-        <v>0.2722394144049221</v>
+        <v>-0.01920060568666937</v>
       </c>
       <c r="E85">
-        <v>-0.03651044028678546</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09973671312654044</v>
+      </c>
+      <c r="F85">
+        <v>-0.1390413324428727</v>
+      </c>
+      <c r="G85">
+        <v>0.1083134334729252</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009663169682847786</v>
+        <v>-0.01344976969880039</v>
       </c>
       <c r="C86">
-        <v>0.02150929923196356</v>
+        <v>0.0288615465334268</v>
       </c>
       <c r="D86">
-        <v>0.05538887660204734</v>
+        <v>0.01259312778583114</v>
       </c>
       <c r="E86">
-        <v>0.03675568022094733</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.0485084171687829</v>
+      </c>
+      <c r="F86">
+        <v>0.03114123153193364</v>
+      </c>
+      <c r="G86">
+        <v>-0.186080715695662</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0079596695326127</v>
+        <v>-0.02265681903955653</v>
       </c>
       <c r="C87">
-        <v>-0.004103073694196747</v>
+        <v>0.02391850721350763</v>
       </c>
       <c r="D87">
-        <v>0.05672529811604093</v>
+        <v>0.01221693745272415</v>
       </c>
       <c r="E87">
-        <v>0.01023535262176584</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08696463277842775</v>
+      </c>
+      <c r="F87">
+        <v>0.01520345263009425</v>
+      </c>
+      <c r="G87">
+        <v>-0.1171818703704444</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02862721068436702</v>
+        <v>-0.09226285398060791</v>
       </c>
       <c r="C88">
-        <v>0.02751223074233954</v>
+        <v>0.06629674850898737</v>
       </c>
       <c r="D88">
-        <v>0.05443132768401523</v>
+        <v>0.0224035213441058</v>
       </c>
       <c r="E88">
-        <v>-0.002523104062921618</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.008445005524416379</v>
+      </c>
+      <c r="F88">
+        <v>-0.01642381388650248</v>
+      </c>
+      <c r="G88">
+        <v>-0.08534989077380734</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.09328236174511456</v>
+        <v>-0.234210072360206</v>
       </c>
       <c r="C89">
-        <v>0.4062961315797906</v>
+        <v>-0.368118114810338</v>
       </c>
       <c r="D89">
-        <v>-0.1801018739461801</v>
+        <v>0.000614645647856536</v>
       </c>
       <c r="E89">
-        <v>-0.01645892280408562</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01051744710317163</v>
+      </c>
+      <c r="F89">
+        <v>-0.02517232311376435</v>
+      </c>
+      <c r="G89">
+        <v>-0.06702935072427808</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.07171309997436744</v>
+        <v>-0.2074302962378109</v>
       </c>
       <c r="C90">
-        <v>0.3225599484292315</v>
+        <v>-0.3197704054821383</v>
       </c>
       <c r="D90">
-        <v>-0.1684502670469124</v>
+        <v>-0.003958807185123688</v>
       </c>
       <c r="E90">
-        <v>0.01712208397093697</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.003145959921931598</v>
+      </c>
+      <c r="F90">
+        <v>-0.05269889385387799</v>
+      </c>
+      <c r="G90">
+        <v>-0.03712732312502864</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0118873892888448</v>
+        <v>-0.1885392691925894</v>
       </c>
       <c r="C91">
-        <v>0.1247618013101043</v>
+        <v>0.1388151651479511</v>
       </c>
       <c r="D91">
-        <v>0.2250643393596595</v>
+        <v>-0.02337866467447756</v>
       </c>
       <c r="E91">
-        <v>-0.03751234852270682</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.0635689087105841</v>
+      </c>
+      <c r="F91">
+        <v>-0.1498037358731515</v>
+      </c>
+      <c r="G91">
+        <v>-0.01269532930290701</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.03923335071224804</v>
+        <v>-0.2003144188692259</v>
       </c>
       <c r="C92">
-        <v>0.3268077464412051</v>
+        <v>-0.2570434928489928</v>
       </c>
       <c r="D92">
-        <v>-0.0636850577762943</v>
+        <v>-0.03817035663652301</v>
       </c>
       <c r="E92">
-        <v>0.02261554975019209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.030957459035018</v>
+      </c>
+      <c r="F92">
+        <v>-0.06180552670703351</v>
+      </c>
+      <c r="G92">
+        <v>-0.1301618236582972</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.06996174627216517</v>
+        <v>-0.232428279804103</v>
       </c>
       <c r="C93">
-        <v>0.341287209885661</v>
+        <v>-0.3146471961642887</v>
       </c>
       <c r="D93">
-        <v>-0.1399529769896348</v>
+        <v>-0.01070620767486689</v>
       </c>
       <c r="E93">
-        <v>0.02951378962765919</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.008852154937973616</v>
+      </c>
+      <c r="F93">
+        <v>-0.03836266320532402</v>
+      </c>
+      <c r="G93">
+        <v>-0.04515394565869121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03544618823544789</v>
+        <v>-0.3171751953795364</v>
       </c>
       <c r="C94">
-        <v>0.1440805954278108</v>
+        <v>0.1748829635567255</v>
       </c>
       <c r="D94">
-        <v>0.2416551185616286</v>
+        <v>-0.01859469602838426</v>
       </c>
       <c r="E94">
-        <v>-0.01353982947610586</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1752558302368588</v>
+      </c>
+      <c r="F94">
+        <v>-0.4725155920307372</v>
+      </c>
+      <c r="G94">
+        <v>0.3614356872109344</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.002944899838241909</v>
+        <v>-0.09971376801550107</v>
       </c>
       <c r="C95">
-        <v>0.03049275806214859</v>
+        <v>0.08507574999985992</v>
       </c>
       <c r="D95">
-        <v>0.1163026355670969</v>
+        <v>-0.01003535867806071</v>
       </c>
       <c r="E95">
-        <v>0.1309445339263931</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07324923606894519</v>
+      </c>
+      <c r="F95">
+        <v>0.2063060131463582</v>
+      </c>
+      <c r="G95">
+        <v>0.05730240165747105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01883554335756603</v>
+        <v>-0.1969620591703885</v>
       </c>
       <c r="C98">
-        <v>0.1433172438339637</v>
+        <v>0.04764483573681288</v>
       </c>
       <c r="D98">
-        <v>0.1647720973796573</v>
+        <v>-0.01236260100140882</v>
       </c>
       <c r="E98">
-        <v>0.01153129538925964</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.0681040799189687</v>
+      </c>
+      <c r="F98">
+        <v>0.2418643372543524</v>
+      </c>
+      <c r="G98">
+        <v>0.01523500725220794</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009096237414784034</v>
+        <v>-0.009340455997497681</v>
       </c>
       <c r="C101">
-        <v>0.01529908245416285</v>
+        <v>0.0227467443526231</v>
       </c>
       <c r="D101">
-        <v>0.01777187698163312</v>
+        <v>0.008673344706773251</v>
       </c>
       <c r="E101">
-        <v>-0.004848433230967257</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.001299123300260859</v>
+      </c>
+      <c r="F101">
+        <v>-0.01847381678613934</v>
+      </c>
+      <c r="G101">
+        <v>-0.09251516037433129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01920317721667773</v>
+        <v>-0.1174408879475814</v>
       </c>
       <c r="C102">
-        <v>0.05710478018868336</v>
+        <v>0.08392203143964351</v>
       </c>
       <c r="D102">
-        <v>0.1287652361542757</v>
+        <v>0.0004734470357515459</v>
       </c>
       <c r="E102">
-        <v>-0.01714641115525726</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.0349895458022076</v>
+      </c>
+      <c r="F102">
+        <v>-0.03992893273353732</v>
+      </c>
+      <c r="G102">
+        <v>1.992611806883224e-05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.0008028556440752218</v>
+        <v>-0.001353064740940607</v>
       </c>
       <c r="C103">
-        <v>0.003093777002304726</v>
+        <v>0.002068030950639232</v>
       </c>
       <c r="D103">
-        <v>0.009694252065756616</v>
+        <v>0.0001286192014051691</v>
       </c>
       <c r="E103">
-        <v>0.003795670432272228</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.002845319495511441</v>
+      </c>
+      <c r="F103">
+        <v>-0.005255769742262348</v>
+      </c>
+      <c r="G103">
+        <v>-0.004661648156057365</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9706815897747729</v>
+        <v>-0.02105360282300804</v>
       </c>
       <c r="C104">
-        <v>-0.196233108642975</v>
+        <v>-0.02872633518259837</v>
       </c>
       <c r="D104">
-        <v>-0.03244158159361222</v>
+        <v>0.9874949260488664</v>
       </c>
       <c r="E104">
-        <v>-0.03866289737479409</v>
+        <v>-0.04931144195607751</v>
+      </c>
+      <c r="F104">
+        <v>-0.03866746401866138</v>
+      </c>
+      <c r="G104">
+        <v>0.03172908634454585</v>
       </c>
     </row>
   </sheetData>
